--- a/Output/Test/Diets_tests.xlsx
+++ b/Output/Test/Diets_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Antarctic-Food-Optimisation\Output\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD68B599-53D6-4380-BB15-468C721E13D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8CC93E-90AE-4166-B5F2-0A30A5578E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F25FA96D-726B-4069-8BBB-7E5C86B0ABB0}"/>
   </bookViews>
@@ -670,37 +670,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2705,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CA0575-3F52-46AB-9BBD-3353A2249647}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="M13" zoomScale="119" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
